--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2432010.484773966</v>
+        <v>2429466.262837939</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>57.08569488870559</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.52558716632</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>133.8333590606433</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368131</v>
+        <v>11.36529914368145</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,19 +738,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>99.45150654579854</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714237</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>176.016653834322</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>68.15818952803801</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553082</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845772</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>40.04377454978632</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.24014755885166</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>76.66605324804979</v>
       </c>
       <c r="X5" t="n">
-        <v>128.1125304967346</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -981,16 +981,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
-        <v>183.652323451407</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>13.92144749017618</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>161.5362330773591</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>103.964007603822</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>69.91615159606474</v>
       </c>
       <c r="C8" t="n">
-        <v>317.2851200040312</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.83028812346051</v>
+        <v>411.8302881234605</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0678569565025</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1218,7 +1218,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1227,7 +1227,7 @@
         <v>135.4855929438821</v>
       </c>
       <c r="H9" t="n">
-        <v>1.000642874826634</v>
+        <v>94.29180769719214</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1730436088544</v>
+        <v>137.1730436088543</v>
       </c>
       <c r="T9" t="n">
         <v>192.675990284458</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8191502244401</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1275,7 +1275,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>44.30775061208218</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>69.43436202901515</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>196.8715076418046</v>
       </c>
       <c r="T10" t="n">
-        <v>116.1509575899463</v>
+        <v>221.290298616738</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2340681971946</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,13 +1370,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444117</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699798</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>105.6507867899556</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365916</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881271</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>59.96838802184498</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>174.8605623338599</v>
       </c>
     </row>
     <row r="17">
@@ -1841,19 +1841,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417095</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>18.50276072357057</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>19.91555826189061</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>102.1557845699814</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187844</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>198.9107847550991</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722608</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444146</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>35.55160172423379</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>27.02919805176019</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>112.6849016609935</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4138,13 +4138,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>74.20064764874441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388.8228542207806</v>
+        <v>170.3628934706923</v>
       </c>
       <c r="C2" t="n">
-        <v>388.8228542207806</v>
+        <v>170.3628934706923</v>
       </c>
       <c r="D2" t="n">
-        <v>388.8228542207806</v>
+        <v>170.3628934706923</v>
       </c>
       <c r="E2" t="n">
-        <v>388.8228542207806</v>
+        <v>170.3628934706923</v>
       </c>
       <c r="F2" t="n">
-        <v>331.1605361513811</v>
+        <v>163.4173927214888</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>150.1872581456726</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159059007</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985585</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.461172602026</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201474</v>
+        <v>738.6222485201461</v>
       </c>
       <c r="S2" t="n">
-        <v>578.2426392372655</v>
+        <v>738.6222485201461</v>
       </c>
       <c r="T2" t="n">
-        <v>388.8228542207806</v>
+        <v>549.2024635036614</v>
       </c>
       <c r="U2" t="n">
-        <v>388.8228542207806</v>
+        <v>359.7826784871768</v>
       </c>
       <c r="V2" t="n">
-        <v>388.8228542207806</v>
+        <v>170.3628934706923</v>
       </c>
       <c r="W2" t="n">
-        <v>388.8228542207806</v>
+        <v>170.3628934706923</v>
       </c>
       <c r="X2" t="n">
-        <v>388.8228542207806</v>
+        <v>170.3628934706923</v>
       </c>
       <c r="Y2" t="n">
-        <v>388.8228542207806</v>
+        <v>170.3628934706923</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>722.9192922843281</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4662630032011</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D3" t="n">
-        <v>399.5318533419498</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E3" t="n">
-        <v>299.0757861239715</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F3" t="n">
-        <v>152.5412281508565</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L3" t="n">
         <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476343</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017056</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843281</v>
+        <v>722.919292284327</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843281</v>
+        <v>571.6362168389232</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843281</v>
+        <v>382.2164318224387</v>
       </c>
       <c r="U3" t="n">
-        <v>722.9192922843281</v>
+        <v>192.7966468059541</v>
       </c>
       <c r="V3" t="n">
-        <v>722.9192922843281</v>
+        <v>192.7966468059541</v>
       </c>
       <c r="W3" t="n">
-        <v>722.9192922843281</v>
+        <v>192.7966468059541</v>
       </c>
       <c r="X3" t="n">
-        <v>722.9192922843281</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="Y3" t="n">
-        <v>722.9192922843281</v>
+        <v>15.00204697330558</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>557.3057129681429</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="C4" t="n">
-        <v>557.3057129681429</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D4" t="n">
-        <v>557.3057129681429</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E4" t="n">
-        <v>409.3926193857498</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F4" t="n">
-        <v>262.5026718878394</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5026718878394</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H4" t="n">
-        <v>107.5191659971125</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>89.66773767220366</v>
       </c>
       <c r="L4" t="n">
-        <v>270.0335799401899</v>
+        <v>262.5553157873386</v>
       </c>
       <c r="M4" t="n">
-        <v>285.9838492295953</v>
+        <v>448.2056470819951</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242521</v>
+        <v>471.6341805242512</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608023</v>
+        <v>634.3723839608012</v>
       </c>
       <c r="P4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846277</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846277</v>
+        <v>615.9383389575107</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846277</v>
+        <v>615.9383389575107</v>
       </c>
       <c r="T4" t="n">
-        <v>557.3057129681429</v>
+        <v>615.9383389575107</v>
       </c>
       <c r="U4" t="n">
-        <v>557.3057129681429</v>
+        <v>426.5185539410261</v>
       </c>
       <c r="V4" t="n">
-        <v>557.3057129681429</v>
+        <v>386.0702968200299</v>
       </c>
       <c r="W4" t="n">
-        <v>557.3057129681429</v>
+        <v>386.0702968200299</v>
       </c>
       <c r="X4" t="n">
-        <v>557.3057129681429</v>
+        <v>196.6505118035453</v>
       </c>
       <c r="Y4" t="n">
-        <v>557.3057129681429</v>
+        <v>196.6505118035453</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>780.3147846266456</v>
+        <v>534.0668899189919</v>
       </c>
       <c r="C5" t="n">
-        <v>411.3522676862339</v>
+        <v>534.0668899189919</v>
       </c>
       <c r="D5" t="n">
-        <v>53.08656907948338</v>
+        <v>534.0668899189919</v>
       </c>
       <c r="E5" t="n">
-        <v>53.08656907948338</v>
+        <v>148.2786373207477</v>
       </c>
       <c r="F5" t="n">
-        <v>46.14106833027991</v>
+        <v>141.3331365715442</v>
       </c>
       <c r="G5" t="n">
-        <v>33.72921106255854</v>
+        <v>128.9212793038228</v>
       </c>
       <c r="H5" t="n">
-        <v>33.72921106255854</v>
+        <v>128.9212793038228</v>
       </c>
       <c r="I5" t="n">
         <v>33.72921106255854</v>
@@ -4592,25 +4592,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S5" t="n">
-        <v>1686.460553127927</v>
+        <v>1544.727438003256</v>
       </c>
       <c r="T5" t="n">
-        <v>1686.460553127927</v>
+        <v>1332.709567064687</v>
       </c>
       <c r="U5" t="n">
-        <v>1686.460553127927</v>
+        <v>1332.709567064687</v>
       </c>
       <c r="V5" t="n">
-        <v>1686.460553127927</v>
+        <v>1001.646679721117</v>
       </c>
       <c r="W5" t="n">
-        <v>1686.460553127927</v>
+        <v>924.2062218948037</v>
       </c>
       <c r="X5" t="n">
-        <v>1557.053956666579</v>
+        <v>924.2062218948037</v>
       </c>
       <c r="Y5" t="n">
-        <v>1166.914624690767</v>
+        <v>534.0668899189919</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>662.8886629835073</v>
+        <v>454.7486208726792</v>
       </c>
       <c r="C6" t="n">
-        <v>488.4356337023803</v>
+        <v>280.2955915915522</v>
       </c>
       <c r="D6" t="n">
-        <v>339.501224041129</v>
+        <v>131.3611819303009</v>
       </c>
       <c r="E6" t="n">
-        <v>180.2637690356736</v>
+        <v>131.3611819303009</v>
       </c>
       <c r="F6" t="n">
-        <v>33.72921106255854</v>
+        <v>131.3611819303009</v>
       </c>
       <c r="G6" t="n">
-        <v>33.72921106255854</v>
+        <v>131.3611819303009</v>
       </c>
       <c r="H6" t="n">
         <v>33.72921106255854</v>
@@ -4644,25 +4644,25 @@
         <v>33.72921106255854</v>
       </c>
       <c r="J6" t="n">
-        <v>183.8748628766941</v>
+        <v>59.04473788968937</v>
       </c>
       <c r="K6" t="n">
-        <v>305.2979551469729</v>
+        <v>180.4678301599682</v>
       </c>
       <c r="L6" t="n">
-        <v>514.8888283998035</v>
+        <v>452.7985733737478</v>
       </c>
       <c r="M6" t="n">
-        <v>778.8283598952908</v>
+        <v>716.738104869235</v>
       </c>
       <c r="N6" t="n">
-        <v>1064.162230328624</v>
+        <v>1002.071975302568</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.967182080082</v>
+        <v>1240.876927054026</v>
       </c>
       <c r="P6" t="n">
-        <v>1475.296143033791</v>
+        <v>1413.205888007736</v>
       </c>
       <c r="Q6" t="n">
         <v>1686.460553127927</v>
@@ -4671,25 +4671,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S6" t="n">
-        <v>1686.460553127927</v>
+        <v>1543.309735648992</v>
       </c>
       <c r="T6" t="n">
-        <v>1686.460553127927</v>
+        <v>1347.691013115832</v>
       </c>
       <c r="U6" t="n">
-        <v>1686.460553127927</v>
+        <v>1119.574596246804</v>
       </c>
       <c r="V6" t="n">
-        <v>1500.953155702264</v>
+        <v>884.4224880150612</v>
       </c>
       <c r="W6" t="n">
-        <v>1246.715798974062</v>
+        <v>870.360419843166</v>
       </c>
       <c r="X6" t="n">
-        <v>1038.864298768529</v>
+        <v>662.5089196376332</v>
       </c>
       <c r="Y6" t="n">
-        <v>831.1040000035753</v>
+        <v>454.7486208726792</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>493.9037101721573</v>
+        <v>350.5784875728585</v>
       </c>
       <c r="C7" t="n">
-        <v>493.9037101721573</v>
+        <v>181.6423046449517</v>
       </c>
       <c r="D7" t="n">
-        <v>343.7870707598215</v>
+        <v>181.6423046449517</v>
       </c>
       <c r="E7" t="n">
-        <v>343.7870707598215</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="F7" t="n">
-        <v>196.8971232619112</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="G7" t="n">
         <v>33.72921106255854</v>
@@ -4753,22 +4753,22 @@
         <v>972.9993576026061</v>
       </c>
       <c r="T7" t="n">
-        <v>748.5881983780441</v>
+        <v>972.9993576026061</v>
       </c>
       <c r="U7" t="n">
-        <v>748.5881983780441</v>
+        <v>972.9993576026061</v>
       </c>
       <c r="V7" t="n">
-        <v>493.9037101721573</v>
+        <v>867.9852085078364</v>
       </c>
       <c r="W7" t="n">
-        <v>493.9037101721573</v>
+        <v>578.5680384708759</v>
       </c>
       <c r="X7" t="n">
-        <v>493.9037101721573</v>
+        <v>350.5784875728585</v>
       </c>
       <c r="Y7" t="n">
-        <v>493.9037101721573</v>
+        <v>350.5784875728585</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>383.7408534662072</v>
+        <v>836.2537542409309</v>
       </c>
       <c r="C8" t="n">
-        <v>63.25083326011502</v>
+        <v>467.2912373005192</v>
       </c>
       <c r="D8" t="n">
-        <v>63.25083326011502</v>
+        <v>467.2912373005192</v>
       </c>
       <c r="E8" t="n">
-        <v>63.25083326011502</v>
+        <v>467.2912373005192</v>
       </c>
       <c r="F8" t="n">
-        <v>56.30533251091155</v>
+        <v>460.3457365513158</v>
       </c>
       <c r="G8" t="n">
-        <v>44.35554652761811</v>
+        <v>44.3555465276183</v>
       </c>
       <c r="H8" t="n">
-        <v>44.35554652761811</v>
+        <v>44.3555465276183</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761811</v>
+        <v>44.3555465276183</v>
       </c>
       <c r="J8" t="n">
-        <v>156.89270458727</v>
+        <v>156.8927045872707</v>
       </c>
       <c r="K8" t="n">
-        <v>376.2952505158981</v>
+        <v>376.2952505158998</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985246</v>
+        <v>685.3852714985283</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.976912556939</v>
+        <v>1060.976912556944</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.259827415483</v>
+        <v>1447.259827415489</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.680568975102</v>
+        <v>1798.68056897511</v>
       </c>
       <c r="P8" t="n">
-        <v>2064.10904063108</v>
+        <v>2064.109040631088</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.262022208118</v>
+        <v>2215.262022208127</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.777326380905</v>
+        <v>2217.777326380915</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.777326380905</v>
+        <v>2217.777326380915</v>
       </c>
       <c r="T8" t="n">
-        <v>2217.777326380905</v>
+        <v>2217.777326380915</v>
       </c>
       <c r="U8" t="n">
-        <v>2217.777326380905</v>
+        <v>1964.173430465256</v>
       </c>
       <c r="V8" t="n">
-        <v>1886.714439037335</v>
+        <v>1633.110543121685</v>
       </c>
       <c r="W8" t="n">
-        <v>1533.945783767221</v>
+        <v>1280.341887851571</v>
       </c>
       <c r="X8" t="n">
-        <v>1160.480025506141</v>
+        <v>906.8761295904912</v>
       </c>
       <c r="Y8" t="n">
-        <v>770.340693530329</v>
+        <v>906.8761295904912</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>811.3798831139293</v>
+        <v>746.3759279290452</v>
       </c>
       <c r="C9" t="n">
-        <v>636.9268538328023</v>
+        <v>571.9228986479183</v>
       </c>
       <c r="D9" t="n">
-        <v>487.992444171551</v>
+        <v>422.988488986667</v>
       </c>
       <c r="E9" t="n">
-        <v>328.7549891660955</v>
+        <v>422.988488986667</v>
       </c>
       <c r="F9" t="n">
-        <v>182.2204311929805</v>
+        <v>276.4539310135519</v>
       </c>
       <c r="G9" t="n">
-        <v>45.36629690623087</v>
+        <v>139.5997967268023</v>
       </c>
       <c r="H9" t="n">
-        <v>44.35554652761811</v>
+        <v>44.3555465276183</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761811</v>
+        <v>44.3555465276183</v>
       </c>
       <c r="J9" t="n">
-        <v>92.56405995424026</v>
+        <v>92.56405995424083</v>
       </c>
       <c r="K9" t="n">
-        <v>514.9354973067598</v>
+        <v>462.6427349937635</v>
       </c>
       <c r="L9" t="n">
-        <v>777.1384731364354</v>
+        <v>724.84571082344</v>
       </c>
       <c r="M9" t="n">
-        <v>1102.47384678654</v>
+        <v>1050.181084473546</v>
       </c>
       <c r="N9" t="n">
-        <v>1450.828524627293</v>
+        <v>1398.5357623143</v>
       </c>
       <c r="O9" t="n">
-        <v>1747.285203042444</v>
+        <v>1694.992440729452</v>
       </c>
       <c r="P9" t="n">
-        <v>1965.884757309772</v>
+        <v>1913.59199499678</v>
       </c>
       <c r="Q9" t="n">
-        <v>2217.777326380905</v>
+        <v>2217.777326380915</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.777326380905</v>
+        <v>2217.777326380915</v>
       </c>
       <c r="S9" t="n">
-        <v>2079.218696472972</v>
+        <v>2079.218696472981</v>
       </c>
       <c r="T9" t="n">
-        <v>1884.596484064428</v>
+        <v>1884.596484064438</v>
       </c>
       <c r="U9" t="n">
-        <v>1884.596484064428</v>
+        <v>1656.496332322579</v>
       </c>
       <c r="V9" t="n">
-        <v>1649.444375832686</v>
+        <v>1421.344224090837</v>
       </c>
       <c r="W9" t="n">
-        <v>1395.207019104484</v>
+        <v>1167.106867362635</v>
       </c>
       <c r="X9" t="n">
-        <v>1187.355518898951</v>
+        <v>1122.351563714067</v>
       </c>
       <c r="Y9" t="n">
-        <v>979.5952201339974</v>
+        <v>914.5912649491133</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>213.291729455525</v>
+        <v>283.4274486767526</v>
       </c>
       <c r="C10" t="n">
-        <v>44.35554652761811</v>
+        <v>114.4912657488457</v>
       </c>
       <c r="D10" t="n">
-        <v>44.35554652761811</v>
+        <v>114.4912657488457</v>
       </c>
       <c r="E10" t="n">
-        <v>44.35554652761811</v>
+        <v>114.4912657488457</v>
       </c>
       <c r="F10" t="n">
-        <v>44.35554652761811</v>
+        <v>114.4912657488457</v>
       </c>
       <c r="G10" t="n">
-        <v>44.35554652761811</v>
+        <v>44.3555465276183</v>
       </c>
       <c r="H10" t="n">
-        <v>44.35554652761811</v>
+        <v>44.3555465276183</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761811</v>
+        <v>44.3555465276183</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262691986</v>
+        <v>60.95254262692028</v>
       </c>
       <c r="K10" t="n">
-        <v>218.0633423274022</v>
+        <v>218.0633423274031</v>
       </c>
       <c r="L10" t="n">
-        <v>474.6375091918424</v>
+        <v>474.6375091918437</v>
       </c>
       <c r="M10" t="n">
-        <v>755.5481168921692</v>
+        <v>755.548116892171</v>
       </c>
       <c r="N10" t="n">
-        <v>1035.213914629316</v>
+        <v>1035.213914629318</v>
       </c>
       <c r="O10" t="n">
-        <v>1277.514248546127</v>
+        <v>1277.51424854613</v>
       </c>
       <c r="P10" t="n">
-        <v>1461.323360659236</v>
+        <v>1461.32336065924</v>
       </c>
       <c r="Q10" t="n">
-        <v>1505.148182155964</v>
+        <v>1505.148182155968</v>
       </c>
       <c r="R10" t="n">
-        <v>1505.148182155964</v>
+        <v>1505.148182155968</v>
       </c>
       <c r="S10" t="n">
-        <v>1505.148182155964</v>
+        <v>1306.288073426872</v>
       </c>
       <c r="T10" t="n">
-        <v>1387.82398257016</v>
+        <v>1082.762519268551</v>
       </c>
       <c r="U10" t="n">
-        <v>1387.82398257016</v>
+        <v>793.6371978572433</v>
       </c>
       <c r="V10" t="n">
-        <v>1133.139494364273</v>
+        <v>793.6371978572433</v>
       </c>
       <c r="W10" t="n">
-        <v>843.7223243273122</v>
+        <v>504.2200278202827</v>
       </c>
       <c r="X10" t="n">
-        <v>615.7327734292949</v>
+        <v>504.2200278202827</v>
       </c>
       <c r="Y10" t="n">
-        <v>394.9401942857647</v>
+        <v>283.4274486767526</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168591</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362666</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239594</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>924.8344286397178</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2149.810879820876</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2149.810879820876</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400696</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>197.0043242297696</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297696</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782942</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038328</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797729</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
         <v>2035.089393279801</v>
@@ -5218,31 +5218,31 @@
         <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832661</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138395</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703094</v>
       </c>
     </row>
     <row r="14">
@@ -5261,61 +5261,61 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591808</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>172.3490191411141</v>
       </c>
       <c r="K15" t="n">
-        <v>221.3431781811722</v>
+        <v>506.2737913123345</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969308</v>
+        <v>506.2737913123345</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493493</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>634.927936255316</v>
+        <v>558.019349243338</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>558.019349243338</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>739.6678140735777</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561141</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>710.2486053718727</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770319</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>634.334587849125</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>484.2179484367892</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>336.3048548543961</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F19" t="n">
-        <v>336.3048548543961</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072716</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="21">
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191923</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191923</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.71788640035</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2204.627616639637</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5890,31 +5890,31 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>241.7297566303649</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="24">
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1996.142560886457</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1707.067334230655</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1452.382846024768</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1162.965675987807</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>934.9761250897898</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>714.1835459462596</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6227,19 +6227,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,16 +6303,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925216</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>296.7882229101285</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>149.8982754122182</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362694</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,25 +6598,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6680,37 +6680,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6777,19 +6777,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>296.9234711454493</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>129.7273718603292</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>129.7273718603292</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400703</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121634</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121634</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121634</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121634</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7102,43 +7102,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.50206557031</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,31 +7160,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7488,25 +7488,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2497.745796000625</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7573,46 +7573,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="44">
@@ -7628,10 +7628,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7640,19 +7640,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
         <v>261.0127623330919</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,16 +8137,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>89.52419948887513</v>
       </c>
       <c r="L4" t="n">
-        <v>152.8089368603741</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711117</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>63.37360602116058</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>147.359858416601</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>211.6442649792477</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>157.2563157025147</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>30.32522655688334</v>
+        <v>30.32522655688309</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>63.36835372228903</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>111.7546635373327</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229326</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>43.72409101823493</v>
       </c>
     </row>
     <row r="17">
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>147.0213775686983</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>18.49466557218921</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016499</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,10 +24847,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>45.71423459433174</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>138.4949402405086</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25546,25 +25546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>105.8997516911013</v>
       </c>
     </row>
     <row r="44">
@@ -26026,13 +26026,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>824712.3561640749</v>
+        <v>824712.356164075</v>
       </c>
     </row>
     <row r="5">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>800386.7019280269</v>
+        <v>800386.701928027</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
+        <v>636307.3716448195</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448196</v>
       </c>
-      <c r="D2" t="n">
-        <v>636307.3716448195</v>
-      </c>
       <c r="E2" t="n">
-        <v>625538.6147597545</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597545</v>
+        <v>625538.614759755</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="I2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="K2" t="n">
         <v>625538.6147597546</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="N2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="N2" t="n">
-        <v>625538.614759755</v>
-      </c>
       <c r="O2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="P2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208451</v>
       </c>
       <c r="C3" t="n">
-        <v>259123.8056778327</v>
+        <v>259123.8056778333</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296883</v>
+        <v>138712.7919296906</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.792174577</v>
+        <v>589678.7921745743</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854463</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>60247.15959153564</v>
+        <v>60247.15959153568</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.87336484239</v>
+        <v>33617.87336484301</v>
       </c>
       <c r="M3" t="n">
-        <v>154073.851016728</v>
+        <v>154073.8510167273</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278169.1766632064</v>
+        <v>278169.1766632065</v>
       </c>
       <c r="C4" t="n">
         <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>170385.5244296195</v>
+        <v>170385.5244296188</v>
       </c>
       <c r="E4" t="n">
+        <v>14216.75207685517</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14216.75207685514</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14216.75207685518</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14216.75207685516</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14216.75207685515</v>
+      </c>
+      <c r="J4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="F4" t="n">
+      <c r="K4" t="n">
+        <v>14216.75207685509</v>
+      </c>
+      <c r="L4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="G4" t="n">
-        <v>14216.75207685506</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="M4" t="n">
         <v>14216.75207685507</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14216.75207685506</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14216.752076855</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14216.75207685501</v>
-      </c>
-      <c r="L4" t="n">
-        <v>14216.75207685507</v>
-      </c>
-      <c r="M4" t="n">
-        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26457,7 +26457,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="P4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685507</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161355</v>
       </c>
       <c r="C5" t="n">
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>86168.0402996929</v>
+        <v>86168.04029969309</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-290204.5079508457</v>
+        <v>-290204.5079508456</v>
       </c>
       <c r="C6" t="n">
-        <v>92318.26827223721</v>
+        <v>92318.26827223651</v>
       </c>
       <c r="D6" t="n">
-        <v>241041.0149858188</v>
+        <v>241041.0149858171</v>
       </c>
       <c r="E6" t="n">
-        <v>-79479.45931558468</v>
+        <v>-79514.19724101743</v>
       </c>
       <c r="F6" t="n">
-        <v>510199.3328589923</v>
+        <v>510164.594933557</v>
       </c>
       <c r="G6" t="n">
-        <v>510199.3328589927</v>
+        <v>510164.5949335565</v>
       </c>
       <c r="H6" t="n">
-        <v>510199.3328589926</v>
+        <v>510164.5949335568</v>
       </c>
       <c r="I6" t="n">
-        <v>510199.3328589924</v>
+        <v>510164.5949335568</v>
       </c>
       <c r="J6" t="n">
-        <v>461134.3881304478</v>
+        <v>461099.6502050123</v>
       </c>
       <c r="K6" t="n">
-        <v>449952.173267457</v>
+        <v>449917.4353420211</v>
       </c>
       <c r="L6" t="n">
-        <v>476581.4594941502</v>
+        <v>476546.7215687139</v>
       </c>
       <c r="M6" t="n">
-        <v>356125.4818422646</v>
+        <v>356090.7439168298</v>
       </c>
       <c r="N6" t="n">
-        <v>510199.3328589928</v>
+        <v>510164.5949335569</v>
       </c>
       <c r="O6" t="n">
-        <v>510199.3328589927</v>
+        <v>510164.5949335569</v>
       </c>
       <c r="P6" t="n">
-        <v>510199.3328589926</v>
+        <v>510164.594933557</v>
       </c>
     </row>
   </sheetData>
@@ -26692,25 +26692,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>863.7717861790435</v>
+        <v>863.7717861790453</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="C4" t="n">
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952263</v>
+        <v>554.4443315952287</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>201.5110155847053</v>
+        <v>201.5110155847058</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7908296814335</v>
+        <v>113.7908296814353</v>
       </c>
       <c r="E3" t="n">
-        <v>504.2037141626303</v>
+        <v>504.203714162628</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="C4" t="n">
-        <v>234.0895511156618</v>
+        <v>234.0895511156621</v>
       </c>
       <c r="D4" t="n">
-        <v>132.8291933132446</v>
+        <v>132.8291933132469</v>
       </c>
       <c r="E4" t="n">
-        <v>618.263956504422</v>
+        <v>618.2639565044192</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>234.0895511156618</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132446</v>
+        <v>132.8291933132472</v>
       </c>
       <c r="M4" t="n">
-        <v>618.263956504422</v>
+        <v>618.2639565044192</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156618</v>
+        <v>234.0895511156621</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132446</v>
+        <v>132.8291933132469</v>
       </c>
       <c r="M4" t="n">
-        <v>618.263956504422</v>
+        <v>618.2639565044192</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>349.7903508530059</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.572246063738</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>183.060467045579</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988677</v>
+        <v>25.91829388988706</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871061</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038152</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>58.19357390960241</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>48.7788117555066</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,13 +27506,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>7.884010625681526</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.3381812437712</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>29.75633136915545</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>57.54903024282865</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553089</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>36.19408632378009</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>98.73949432713056</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>212.0938687740417</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>38.18406822271743</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
-        <v>94.24014755885166</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.3157839734241</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1044530022292</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>272.5749154693632</v>
       </c>
       <c r="X5" t="n">
-        <v>241.6185701817345</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27701,16 +27701,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
-        <v>96.65565115906497</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>33.85559031833734</v>
@@ -27743,19 +27743,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.7193093041456</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6625353078282</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8352527003384</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>49.1482636980183</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>237.7735356707434</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>5.102321605448225</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
         <v>150.2028876639205</v>
@@ -27825,19 +27825,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
         <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>148.173635720006</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>312.8176900674158</v>
       </c>
       <c r="C8" t="n">
-        <v>47.98777176697638</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9125797832802</v>
+        <v>303.9125797832801</v>
       </c>
       <c r="I8" t="n">
-        <v>76.60428439787293</v>
+        <v>76.60428439787265</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.8916290734616</v>
+        <v>129.8916290734614</v>
       </c>
       <c r="T8" t="n">
         <v>207.895202352076</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0678569565025</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27938,7 +27938,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27947,10 +27947,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>93.29116482236554</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42862793155194</v>
+        <v>25.42862793155181</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27986,7 +27986,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8191502244401</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27995,7 +27995,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>161.4652345913953</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4333581046933</v>
+        <v>96.99899607567812</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3785035421428</v>
+        <v>148.3785035421427</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6085557685652</v>
+        <v>108.6085557685651</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2570757305867</v>
+        <v>107.2570757305866</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8715076418046</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>105.1393410267918</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340681971946</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28090,22 +28090,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28333,16 +28333,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,13 +28375,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.54065649127233e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28494,7 +28494,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,22 +28612,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28813,10 +28813,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.216893335571513e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29481,7 +29481,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>-5.337969698444042e-12</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-8.722622624190989e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30645,7 +30645,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>-4.551261486021622e-13</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30706,7 +30706,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31121,46 +31121,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.472449391674544</v>
+        <v>3.472449391674551</v>
       </c>
       <c r="H8" t="n">
-        <v>35.56222233248693</v>
+        <v>35.56222233248701</v>
       </c>
       <c r="I8" t="n">
-        <v>133.871605172533</v>
+        <v>133.8716051725333</v>
       </c>
       <c r="J8" t="n">
-        <v>294.7198015566376</v>
+        <v>294.7198015566382</v>
       </c>
       <c r="K8" t="n">
-        <v>441.7085843062212</v>
+        <v>441.7085843062221</v>
       </c>
       <c r="L8" t="n">
-        <v>547.9785573766811</v>
+        <v>547.9785573766823</v>
       </c>
       <c r="M8" t="n">
-        <v>609.7317292458732</v>
+        <v>609.7317292458745</v>
       </c>
       <c r="N8" t="n">
-        <v>619.5978260799686</v>
+        <v>619.5978260799699</v>
       </c>
       <c r="O8" t="n">
-        <v>585.0686574415048</v>
+        <v>585.068657441506</v>
       </c>
       <c r="P8" t="n">
-        <v>499.3425630845394</v>
+        <v>499.3425630845405</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9854692451947</v>
+        <v>374.9854692451955</v>
       </c>
       <c r="R8" t="n">
-        <v>218.1262490997763</v>
+        <v>218.1262490997767</v>
       </c>
       <c r="S8" t="n">
-        <v>79.12844051278375</v>
+        <v>79.12844051278392</v>
       </c>
       <c r="T8" t="n">
-        <v>15.20064721205532</v>
+        <v>15.20064721205536</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777959513339635</v>
+        <v>0.2777959513339641</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857924219328509</v>
+        <v>1.857924219328513</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94363653930428</v>
+        <v>17.94363653930432</v>
       </c>
       <c r="I9" t="n">
-        <v>63.96800491986313</v>
+        <v>63.96800491986327</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5330947743658</v>
+        <v>175.5330947743662</v>
       </c>
       <c r="K9" t="n">
-        <v>300.0140174693759</v>
+        <v>300.0140174693765</v>
       </c>
       <c r="L9" t="n">
-        <v>403.4058705169203</v>
+        <v>403.4058705169211</v>
       </c>
       <c r="M9" t="n">
-        <v>470.7556234675786</v>
+        <v>470.7556234675797</v>
       </c>
       <c r="N9" t="n">
-        <v>483.2151240436896</v>
+        <v>483.2151240436907</v>
       </c>
       <c r="O9" t="n">
-        <v>442.047434762779</v>
+        <v>442.0474347627799</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7820379873887</v>
+        <v>354.7820379873894</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.162396839197</v>
+        <v>237.1623968391975</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3542774070806</v>
+        <v>115.3542774070809</v>
       </c>
       <c r="S9" t="n">
-        <v>34.51012749498346</v>
+        <v>34.51012749498354</v>
       </c>
       <c r="T9" t="n">
-        <v>7.488738410363592</v>
+        <v>7.488738410363607</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222318565347704</v>
+        <v>0.1222318565347706</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557621253765488</v>
+        <v>1.557621253765491</v>
       </c>
       <c r="H10" t="n">
-        <v>13.8486689652968</v>
+        <v>13.84866896529683</v>
       </c>
       <c r="I10" t="n">
-        <v>46.84191915869306</v>
+        <v>46.84191915869315</v>
       </c>
       <c r="J10" t="n">
-        <v>110.12382264122</v>
+        <v>110.1238226412202</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9672693011176</v>
+        <v>180.967269301118</v>
       </c>
       <c r="L10" t="n">
-        <v>231.57579985528</v>
+        <v>231.5757998552805</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1642116243482</v>
+        <v>244.1642116243488</v>
       </c>
       <c r="N10" t="n">
-        <v>238.358532405768</v>
+        <v>238.3585324057685</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1626841231438</v>
+        <v>220.1626841231443</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3872105463277</v>
+        <v>188.3872105463281</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4295397130356</v>
+        <v>130.4295397130358</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658275</v>
+        <v>70.03631564658289</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14509039516763</v>
+        <v>27.14509039516769</v>
       </c>
       <c r="T10" t="n">
-        <v>6.655290811543447</v>
+        <v>6.655290811543462</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08496115929629945</v>
+        <v>0.08496115929629963</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>268.6704608606973</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>204.3779992811871</v>
       </c>
       <c r="K15" t="n">
-        <v>266.6561007250664</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060511</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32552,34 +32552,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>213.3000196296252</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32737,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,40 +32783,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724569</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>265.5442652399247</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,22 +33497,22 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O33" t="n">
-        <v>688.8020111197787</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,25 +33731,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>227.8611086463993</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>172.7144981745678</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34208,19 +34208,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>158.8462560123214</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34445,13 +34445,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062402</v>
+        <v>75.41988959484654</v>
       </c>
       <c r="L4" t="n">
-        <v>164.9681526068349</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="N4" t="n">
-        <v>187.52558716632</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>164.3820236732829</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469473</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>151.6622745597329</v>
+        <v>25.57123921932407</v>
       </c>
       <c r="K6" t="n">
         <v>122.6495881517968</v>
       </c>
       <c r="L6" t="n">
-        <v>211.707952780637</v>
+        <v>275.0815588017976</v>
       </c>
       <c r="M6" t="n">
         <v>266.605587369179</v>
@@ -35033,7 +35033,7 @@
         <v>174.0696575289995</v>
       </c>
       <c r="Q6" t="n">
-        <v>213.2973839334705</v>
+        <v>276.0148132527186</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6738970299513</v>
+        <v>113.6738970299519</v>
       </c>
       <c r="K8" t="n">
-        <v>221.6187332612406</v>
+        <v>221.6187332612415</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2121424066939</v>
+        <v>312.212142406695</v>
       </c>
       <c r="M8" t="n">
-        <v>379.3854960186005</v>
+        <v>379.3854960186018</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1847624833777</v>
+        <v>390.184762483379</v>
       </c>
       <c r="O8" t="n">
-        <v>354.970446019818</v>
+        <v>354.9704460198193</v>
       </c>
       <c r="P8" t="n">
-        <v>268.1095673292699</v>
+        <v>268.1095673292709</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6797793707452</v>
+        <v>152.679779370746</v>
       </c>
       <c r="R8" t="n">
-        <v>2.540711285644136</v>
+        <v>2.540711285644619</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.69546810769916</v>
+        <v>48.69546810769953</v>
       </c>
       <c r="K9" t="n">
-        <v>426.6378155075955</v>
+        <v>373.8168434742653</v>
       </c>
       <c r="L9" t="n">
-        <v>264.8514907370461</v>
+        <v>264.851490737047</v>
       </c>
       <c r="M9" t="n">
-        <v>328.6215895455603</v>
+        <v>328.6215895455613</v>
       </c>
       <c r="N9" t="n">
-        <v>351.8734119603563</v>
+        <v>351.8734119603573</v>
       </c>
       <c r="O9" t="n">
-        <v>299.4511903183346</v>
+        <v>299.4511903183355</v>
       </c>
       <c r="P9" t="n">
-        <v>220.8076305730584</v>
+        <v>220.8076305730592</v>
       </c>
       <c r="Q9" t="n">
-        <v>254.4369384556902</v>
+        <v>307.2579104890251</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.76464252454723</v>
+        <v>16.76464252454745</v>
       </c>
       <c r="K10" t="n">
-        <v>158.6977774752347</v>
+        <v>158.6977774752351</v>
       </c>
       <c r="L10" t="n">
-        <v>259.1658251155961</v>
+        <v>259.1658251155966</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861888</v>
+        <v>283.7480885861893</v>
       </c>
       <c r="N10" t="n">
-        <v>282.4907047849966</v>
+        <v>282.4907047849971</v>
       </c>
       <c r="O10" t="n">
-        <v>244.7478120371835</v>
+        <v>244.7478120371839</v>
       </c>
       <c r="P10" t="n">
-        <v>185.6657698112212</v>
+        <v>185.6657698112216</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.26749646134117</v>
+        <v>44.26749646134145</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>134.6960534463671</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295185</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>77.54037261452038</v>
       </c>
       <c r="K15" t="n">
-        <v>128.8146617507074</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>120.5443928316921</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317163</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>79.32561221529492</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>159.0482712280125</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>134.2025531565914</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O33" t="n">
-        <v>546.2057666753343</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37470,7 +37470,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37856,19 +37856,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>18.86448192629984</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -37941,7 +37941,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191298</v>
       </c>
       <c r="M43" t="n">
         <v>426.2724270010451</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
